--- a/Thesis/gdp_data.xlsx
+++ b/Thesis/gdp_data.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git projects\college_works\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A097678A-0D9F-48E9-B7B9-54464CA55CDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB97AC65-14B1-4857-94C0-D3ACECBA3A56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0FC3EF55-26AB-604E-807A-E180516AAD8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha2!$A$1:$B$28</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>state</t>
   </si>
@@ -112,6 +115,9 @@
   </si>
   <si>
     <t>GDP_data</t>
+  </si>
+  <si>
+    <t>code</t>
   </si>
 </sst>
 </file>
@@ -155,10 +161,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,241 +482,325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A28BEA2-E2C8-CD45-B924-B967BD52575B}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
+      <c r="C1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>48940.033373484599</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>153101.28813035399</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>37914.277227129503</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>100981.465592288</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>93210.7112804723</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>74362.2565607617</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>73706.261931153</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>69744.307861888301</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>69545.715797130906</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>68236.416770405704</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B10">
         <v>64010.5301601678</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>52835.675389290598</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>38214.594374810797</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>37433.817966657502</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>153101.28813035399</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>74362.2565607617</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>55215.111767828901</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>34560.978205927</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>60343.588948092103</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
         <v>56659.397269723697</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>60343.588948092103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>55215.111767828901</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B14">
-        <v>69744.307861888301</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>52835.675389290598</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>50371.858668944296</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>48940.033373484599</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>47503.4120897045</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>46668.851930988101</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>45165.948090207203</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B20">
         <v>44992.650062890301</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>44227.275317301697</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>43437.440242211604</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>38214.594374810797</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>37914.277227129503</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>37433.817966657502</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B26">
         <v>36032.428824419301</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>46668.851930988101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="C26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>34560.978205927</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B28">
         <v>28434.817395885599</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>68236.416770405704</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>100981.465592288</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>43437.440242211604</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>47503.4120897045</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>50371.858668944296</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>69545.715797130906</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>73706.261931153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>45165.948090207203</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>93210.7112804723</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>44227.275317301697</v>
+      <c r="C28">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B28">
-    <sortCondition ref="A1"/>
+    <sortCondition ref="A1:A28"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Thesis/gdp_data.xlsx
+++ b/Thesis/gdp_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git projects\college_works\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB97AC65-14B1-4857-94C0-D3ACECBA3A56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FC6A8B-D8AE-4C26-BEA3-940291532A96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0FC3EF55-26AB-604E-807A-E180516AAD8C}"/>
   </bookViews>
@@ -485,7 +485,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -707,7 +707,7 @@
         <v>44992.650062890301</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
